--- a/xlsx/馬里共和國_intext.xlsx
+++ b/xlsx/馬里共和國_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1014">
   <si>
     <t>馬里共和國</t>
   </si>
@@ -23,15 +23,21 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
+  </si>
+  <si>
+    <t>地理坐标</t>
+  </si>
+  <si>
+    <t>体育运动_体育运动_南非_馬里共和國</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
     <t>马里 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_馬里共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
@@ -774,6 +780,18 @@
   </si>
   <si>
     <t>高清翡翠台</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/OpenStreetMap</t>
+  </si>
+  <si>
+    <t>OpenStreetMap</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AF%BC%E6%B8%B8</t>
+  </si>
+  <si>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%A5%A5%E5%8C%BA</t>
@@ -3387,7 +3405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I538"/>
+  <dimension ref="A1:I541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3441,7 +3459,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -3470,7 +3488,7 @@
         <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
@@ -3499,7 +3517,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -3557,7 +3575,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -3615,7 +3633,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -3644,7 +3662,7 @@
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -3702,7 +3720,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -3725,13 +3743,13 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
@@ -3760,7 +3778,7 @@
         <v>24</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
@@ -3789,7 +3807,7 @@
         <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H14" t="s">
         <v>4</v>
@@ -3818,7 +3836,7 @@
         <v>28</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -3905,7 +3923,7 @@
         <v>34</v>
       </c>
       <c r="G18" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
@@ -3934,7 +3952,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
@@ -3957,13 +3975,13 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H20" t="s">
         <v>4</v>
@@ -3986,10 +4004,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -4015,10 +4033,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -4195,7 +4213,7 @@
         <v>50</v>
       </c>
       <c r="G28" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H28" t="s">
         <v>4</v>
@@ -4224,7 +4242,7 @@
         <v>52</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H29" t="s">
         <v>4</v>
@@ -4282,7 +4300,7 @@
         <v>56</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
@@ -4311,7 +4329,7 @@
         <v>58</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
@@ -4340,7 +4358,7 @@
         <v>60</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
@@ -4369,7 +4387,7 @@
         <v>62</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="s">
         <v>4</v>
@@ -4398,7 +4416,7 @@
         <v>64</v>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H35" t="s">
         <v>4</v>
@@ -4427,7 +4445,7 @@
         <v>66</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
@@ -4456,7 +4474,7 @@
         <v>68</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
@@ -4485,7 +4503,7 @@
         <v>70</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" t="s">
         <v>4</v>
@@ -4543,7 +4561,7 @@
         <v>74</v>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H40" t="s">
         <v>4</v>
@@ -4572,7 +4590,7 @@
         <v>76</v>
       </c>
       <c r="G41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H41" t="s">
         <v>4</v>
@@ -4601,7 +4619,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H42" t="s">
         <v>4</v>
@@ -4630,7 +4648,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H43" t="s">
         <v>4</v>
@@ -4746,7 +4764,7 @@
         <v>88</v>
       </c>
       <c r="G47" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H47" t="s">
         <v>4</v>
@@ -4775,7 +4793,7 @@
         <v>90</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H48" t="s">
         <v>4</v>
@@ -4804,7 +4822,7 @@
         <v>92</v>
       </c>
       <c r="G49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H49" t="s">
         <v>4</v>
@@ -4833,7 +4851,7 @@
         <v>94</v>
       </c>
       <c r="G50" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H50" t="s">
         <v>4</v>
@@ -4862,7 +4880,7 @@
         <v>96</v>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H51" t="s">
         <v>4</v>
@@ -4891,7 +4909,7 @@
         <v>98</v>
       </c>
       <c r="G52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
@@ -4920,7 +4938,7 @@
         <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
@@ -4949,7 +4967,7 @@
         <v>102</v>
       </c>
       <c r="G54" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -4978,7 +4996,7 @@
         <v>104</v>
       </c>
       <c r="G55" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H55" t="s">
         <v>4</v>
@@ -5007,7 +5025,7 @@
         <v>106</v>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H56" t="s">
         <v>4</v>
@@ -5065,7 +5083,7 @@
         <v>110</v>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H58" t="s">
         <v>4</v>
@@ -5152,7 +5170,7 @@
         <v>116</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -5181,7 +5199,7 @@
         <v>118</v>
       </c>
       <c r="G62" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H62" t="s">
         <v>4</v>
@@ -5210,7 +5228,7 @@
         <v>120</v>
       </c>
       <c r="G63" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
         <v>4</v>
@@ -5239,7 +5257,7 @@
         <v>122</v>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="H64" t="s">
         <v>4</v>
@@ -5268,7 +5286,7 @@
         <v>124</v>
       </c>
       <c r="G65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H65" t="s">
         <v>4</v>
@@ -5297,7 +5315,7 @@
         <v>126</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
@@ -5384,7 +5402,7 @@
         <v>132</v>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H69" t="s">
         <v>4</v>
@@ -5413,7 +5431,7 @@
         <v>134</v>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H70" t="s">
         <v>4</v>
@@ -5442,7 +5460,7 @@
         <v>136</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="s">
         <v>4</v>
@@ -5471,7 +5489,7 @@
         <v>138</v>
       </c>
       <c r="G72" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H72" t="s">
         <v>4</v>
@@ -5500,7 +5518,7 @@
         <v>140</v>
       </c>
       <c r="G73" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H73" t="s">
         <v>4</v>
@@ -5529,7 +5547,7 @@
         <v>142</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H74" t="s">
         <v>4</v>
@@ -5645,7 +5663,7 @@
         <v>150</v>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" t="s">
         <v>4</v>
@@ -5703,7 +5721,7 @@
         <v>154</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
@@ -5761,7 +5779,7 @@
         <v>158</v>
       </c>
       <c r="G82" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
@@ -5790,7 +5808,7 @@
         <v>160</v>
       </c>
       <c r="G83" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
@@ -5819,7 +5837,7 @@
         <v>162</v>
       </c>
       <c r="G84" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
@@ -5848,7 +5866,7 @@
         <v>164</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H85" t="s">
         <v>4</v>
@@ -5877,7 +5895,7 @@
         <v>166</v>
       </c>
       <c r="G86" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
@@ -5906,7 +5924,7 @@
         <v>168</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
@@ -5935,7 +5953,7 @@
         <v>170</v>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -5964,7 +5982,7 @@
         <v>172</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
@@ -5993,7 +6011,7 @@
         <v>174</v>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
@@ -6022,7 +6040,7 @@
         <v>176</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
@@ -6254,7 +6272,7 @@
         <v>192</v>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
@@ -6283,7 +6301,7 @@
         <v>194</v>
       </c>
       <c r="G100" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -6312,7 +6330,7 @@
         <v>196</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -6370,7 +6388,7 @@
         <v>200</v>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H103" t="s">
         <v>4</v>
@@ -6399,7 +6417,7 @@
         <v>202</v>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H104" t="s">
         <v>4</v>
@@ -6457,7 +6475,7 @@
         <v>206</v>
       </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -6515,7 +6533,7 @@
         <v>210</v>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H108" t="s">
         <v>4</v>
@@ -6544,7 +6562,7 @@
         <v>212</v>
       </c>
       <c r="G109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
@@ -6573,7 +6591,7 @@
         <v>214</v>
       </c>
       <c r="G110" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -6602,7 +6620,7 @@
         <v>216</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -6631,7 +6649,7 @@
         <v>218</v>
       </c>
       <c r="G112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H112" t="s">
         <v>4</v>
@@ -6660,7 +6678,7 @@
         <v>220</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H113" t="s">
         <v>4</v>
@@ -6689,7 +6707,7 @@
         <v>222</v>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
@@ -6718,7 +6736,7 @@
         <v>224</v>
       </c>
       <c r="G115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -6747,7 +6765,7 @@
         <v>226</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -7147,10 +7165,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>173</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -7176,10 +7194,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -7205,13 +7223,13 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
@@ -7234,10 +7252,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>176</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7414,7 +7432,7 @@
         <v>270</v>
       </c>
       <c r="G139" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -7437,13 +7455,13 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>125</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>126</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -7466,10 +7484,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7495,13 +7513,13 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H142" t="s">
         <v>4</v>
@@ -7524,13 +7542,13 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>127</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>128</v>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -7559,7 +7577,7 @@
         <v>278</v>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H144" t="s">
         <v>4</v>
@@ -7617,7 +7635,7 @@
         <v>282</v>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H146" t="s">
         <v>4</v>
@@ -7646,7 +7664,7 @@
         <v>284</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -7698,10 +7716,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>111</v>
+        <v>287</v>
       </c>
       <c r="F149" t="s">
-        <v>112</v>
+        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7727,10 +7745,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7756,13 +7774,13 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H151" t="s">
         <v>4</v>
@@ -7785,10 +7803,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>113</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>114</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7820,7 +7838,7 @@
         <v>294</v>
       </c>
       <c r="G153" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -7907,7 +7925,7 @@
         <v>300</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H156" t="s">
         <v>4</v>
@@ -8052,7 +8070,7 @@
         <v>310</v>
       </c>
       <c r="G161" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -8139,7 +8157,7 @@
         <v>316</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H164" t="s">
         <v>4</v>
@@ -8307,13 +8325,13 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>49</v>
+        <v>327</v>
       </c>
       <c r="F170" t="s">
-        <v>50</v>
+        <v>328</v>
       </c>
       <c r="G170" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
@@ -8336,10 +8354,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>55</v>
+        <v>329</v>
       </c>
       <c r="F171" t="s">
-        <v>56</v>
+        <v>330</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8365,13 +8383,13 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F172" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H172" t="s">
         <v>4</v>
@@ -8394,13 +8412,13 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>329</v>
+        <v>51</v>
       </c>
       <c r="F173" t="s">
-        <v>330</v>
+        <v>52</v>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H173" t="s">
         <v>4</v>
@@ -8423,10 +8441,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>57</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>58</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8458,7 +8476,7 @@
         <v>334</v>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -8980,7 +8998,7 @@
         <v>370</v>
       </c>
       <c r="G193" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H193" t="s">
         <v>4</v>
@@ -9009,7 +9027,7 @@
         <v>372</v>
       </c>
       <c r="G194" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H194" t="s">
         <v>4</v>
@@ -9067,7 +9085,7 @@
         <v>376</v>
       </c>
       <c r="G196" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
@@ -9096,7 +9114,7 @@
         <v>378</v>
       </c>
       <c r="G197" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -9125,7 +9143,7 @@
         <v>380</v>
       </c>
       <c r="G198" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -9154,7 +9172,7 @@
         <v>382</v>
       </c>
       <c r="G199" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H199" t="s">
         <v>4</v>
@@ -9183,7 +9201,7 @@
         <v>384</v>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -9212,7 +9230,7 @@
         <v>386</v>
       </c>
       <c r="G201" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H201" t="s">
         <v>4</v>
@@ -9241,7 +9259,7 @@
         <v>388</v>
       </c>
       <c r="G202" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H202" t="s">
         <v>4</v>
@@ -9270,7 +9288,7 @@
         <v>390</v>
       </c>
       <c r="G203" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H203" t="s">
         <v>4</v>
@@ -9299,7 +9317,7 @@
         <v>392</v>
       </c>
       <c r="G204" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -9351,13 +9369,13 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>99</v>
+        <v>395</v>
       </c>
       <c r="F206" t="s">
-        <v>100</v>
+        <v>396</v>
       </c>
       <c r="G206" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H206" t="s">
         <v>4</v>
@@ -9380,10 +9398,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F207" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G207" t="n">
         <v>3</v>
@@ -9409,13 +9427,13 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F208" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G208" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H208" t="s">
         <v>4</v>
@@ -9438,13 +9456,13 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>399</v>
+        <v>101</v>
       </c>
       <c r="F209" t="s">
-        <v>400</v>
+        <v>102</v>
       </c>
       <c r="G209" t="n">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="H209" t="s">
         <v>4</v>
@@ -9502,7 +9520,7 @@
         <v>404</v>
       </c>
       <c r="G211" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H211" t="s">
         <v>4</v>
@@ -9531,7 +9549,7 @@
         <v>406</v>
       </c>
       <c r="G212" t="n">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="H212" t="s">
         <v>4</v>
@@ -9589,7 +9607,7 @@
         <v>410</v>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -9618,7 +9636,7 @@
         <v>412</v>
       </c>
       <c r="G215" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
@@ -9647,7 +9665,7 @@
         <v>414</v>
       </c>
       <c r="G216" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H216" t="s">
         <v>4</v>
@@ -9676,7 +9694,7 @@
         <v>416</v>
       </c>
       <c r="G217" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -9734,7 +9752,7 @@
         <v>420</v>
       </c>
       <c r="G219" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H219" t="s">
         <v>4</v>
@@ -9763,7 +9781,7 @@
         <v>422</v>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -9792,7 +9810,7 @@
         <v>424</v>
       </c>
       <c r="G221" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H221" t="s">
         <v>4</v>
@@ -9821,7 +9839,7 @@
         <v>426</v>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H222" t="s">
         <v>4</v>
@@ -9850,7 +9868,7 @@
         <v>428</v>
       </c>
       <c r="G223" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H223" t="s">
         <v>4</v>
@@ -9879,7 +9897,7 @@
         <v>430</v>
       </c>
       <c r="G224" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H224" t="s">
         <v>4</v>
@@ -9908,7 +9926,7 @@
         <v>432</v>
       </c>
       <c r="G225" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H225" t="s">
         <v>4</v>
@@ -9937,7 +9955,7 @@
         <v>434</v>
       </c>
       <c r="G226" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H226" t="s">
         <v>4</v>
@@ -9966,7 +9984,7 @@
         <v>436</v>
       </c>
       <c r="G227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H227" t="s">
         <v>4</v>
@@ -9995,7 +10013,7 @@
         <v>438</v>
       </c>
       <c r="G228" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -10024,7 +10042,7 @@
         <v>440</v>
       </c>
       <c r="G229" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H229" t="s">
         <v>4</v>
@@ -10053,7 +10071,7 @@
         <v>442</v>
       </c>
       <c r="G230" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H230" t="s">
         <v>4</v>
@@ -10111,7 +10129,7 @@
         <v>446</v>
       </c>
       <c r="G232" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H232" t="s">
         <v>4</v>
@@ -10198,7 +10216,7 @@
         <v>452</v>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -10227,7 +10245,7 @@
         <v>454</v>
       </c>
       <c r="G236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
@@ -10256,7 +10274,7 @@
         <v>456</v>
       </c>
       <c r="G237" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H237" t="s">
         <v>4</v>
@@ -10285,7 +10303,7 @@
         <v>458</v>
       </c>
       <c r="G238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H238" t="s">
         <v>4</v>
@@ -10314,7 +10332,7 @@
         <v>460</v>
       </c>
       <c r="G239" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H239" t="s">
         <v>4</v>
@@ -10343,7 +10361,7 @@
         <v>462</v>
       </c>
       <c r="G240" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H240" t="s">
         <v>4</v>
@@ -10372,7 +10390,7 @@
         <v>464</v>
       </c>
       <c r="G241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H241" t="s">
         <v>4</v>
@@ -10401,7 +10419,7 @@
         <v>466</v>
       </c>
       <c r="G242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H242" t="s">
         <v>4</v>
@@ -10430,7 +10448,7 @@
         <v>468</v>
       </c>
       <c r="G243" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H243" t="s">
         <v>4</v>
@@ -10459,7 +10477,7 @@
         <v>470</v>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H244" t="s">
         <v>4</v>
@@ -10517,7 +10535,7 @@
         <v>474</v>
       </c>
       <c r="G246" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H246" t="s">
         <v>4</v>
@@ -10546,7 +10564,7 @@
         <v>476</v>
       </c>
       <c r="G247" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H247" t="s">
         <v>4</v>
@@ -10575,7 +10593,7 @@
         <v>478</v>
       </c>
       <c r="G248" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H248" t="s">
         <v>4</v>
@@ -10604,7 +10622,7 @@
         <v>480</v>
       </c>
       <c r="G249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H249" t="s">
         <v>4</v>
@@ -10633,7 +10651,7 @@
         <v>482</v>
       </c>
       <c r="G250" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H250" t="s">
         <v>4</v>
@@ -11271,7 +11289,7 @@
         <v>526</v>
       </c>
       <c r="G272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H272" t="s">
         <v>4</v>
@@ -11300,7 +11318,7 @@
         <v>528</v>
       </c>
       <c r="G273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -11329,7 +11347,7 @@
         <v>530</v>
       </c>
       <c r="G274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H274" t="s">
         <v>4</v>
@@ -11358,7 +11376,7 @@
         <v>532</v>
       </c>
       <c r="G275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H275" t="s">
         <v>4</v>
@@ -11416,7 +11434,7 @@
         <v>536</v>
       </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H277" t="s">
         <v>4</v>
@@ -11445,7 +11463,7 @@
         <v>538</v>
       </c>
       <c r="G278" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H278" t="s">
         <v>4</v>
@@ -11503,7 +11521,7 @@
         <v>542</v>
       </c>
       <c r="G280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -11619,7 +11637,7 @@
         <v>550</v>
       </c>
       <c r="G284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H284" t="s">
         <v>4</v>
@@ -11822,7 +11840,7 @@
         <v>564</v>
       </c>
       <c r="G291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H291" t="s">
         <v>4</v>
@@ -11851,7 +11869,7 @@
         <v>566</v>
       </c>
       <c r="G292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -11909,7 +11927,7 @@
         <v>570</v>
       </c>
       <c r="G294" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H294" t="s">
         <v>4</v>
@@ -11938,7 +11956,7 @@
         <v>572</v>
       </c>
       <c r="G295" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H295" t="s">
         <v>4</v>
@@ -11967,7 +11985,7 @@
         <v>574</v>
       </c>
       <c r="G296" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H296" t="s">
         <v>4</v>
@@ -11996,7 +12014,7 @@
         <v>576</v>
       </c>
       <c r="G297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H297" t="s">
         <v>4</v>
@@ -12025,7 +12043,7 @@
         <v>578</v>
       </c>
       <c r="G298" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -12083,7 +12101,7 @@
         <v>582</v>
       </c>
       <c r="G300" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H300" t="s">
         <v>4</v>
@@ -12141,7 +12159,7 @@
         <v>586</v>
       </c>
       <c r="G302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H302" t="s">
         <v>4</v>
@@ -12193,13 +12211,13 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>413</v>
+        <v>589</v>
       </c>
       <c r="F304" t="s">
-        <v>414</v>
+        <v>590</v>
       </c>
       <c r="G304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H304" t="s">
         <v>4</v>
@@ -12222,13 +12240,13 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="F305" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="G305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H305" t="s">
         <v>4</v>
@@ -12251,13 +12269,13 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F306" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="G306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H306" t="s">
         <v>4</v>
@@ -12280,13 +12298,13 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>593</v>
+        <v>419</v>
       </c>
       <c r="F307" t="s">
-        <v>594</v>
+        <v>420</v>
       </c>
       <c r="G307" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H307" t="s">
         <v>4</v>
@@ -12344,7 +12362,7 @@
         <v>598</v>
       </c>
       <c r="G309" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
@@ -12402,7 +12420,7 @@
         <v>602</v>
       </c>
       <c r="G311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H311" t="s">
         <v>4</v>
@@ -12431,7 +12449,7 @@
         <v>604</v>
       </c>
       <c r="G312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H312" t="s">
         <v>4</v>
@@ -12460,7 +12478,7 @@
         <v>606</v>
       </c>
       <c r="G313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
@@ -12518,7 +12536,7 @@
         <v>610</v>
       </c>
       <c r="G315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H315" t="s">
         <v>4</v>
@@ -12547,7 +12565,7 @@
         <v>612</v>
       </c>
       <c r="G316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H316" t="s">
         <v>4</v>
@@ -12605,7 +12623,7 @@
         <v>616</v>
       </c>
       <c r="G318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H318" t="s">
         <v>4</v>
@@ -12663,7 +12681,7 @@
         <v>620</v>
       </c>
       <c r="G320" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H320" t="s">
         <v>4</v>
@@ -12692,7 +12710,7 @@
         <v>622</v>
       </c>
       <c r="G321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H321" t="s">
         <v>4</v>
@@ -12750,7 +12768,7 @@
         <v>626</v>
       </c>
       <c r="G323" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H323" t="s">
         <v>4</v>
@@ -12808,7 +12826,7 @@
         <v>630</v>
       </c>
       <c r="G325" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H325" t="s">
         <v>4</v>
@@ -12860,10 +12878,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>429</v>
+        <v>633</v>
       </c>
       <c r="F327" t="s">
-        <v>430</v>
+        <v>634</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12889,13 +12907,13 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="F328" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="G328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H328" t="s">
         <v>4</v>
@@ -12918,13 +12936,13 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F329" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H329" t="s">
         <v>4</v>
@@ -12947,13 +12965,13 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>637</v>
+        <v>435</v>
       </c>
       <c r="F330" t="s">
-        <v>638</v>
+        <v>436</v>
       </c>
       <c r="G330" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H330" t="s">
         <v>4</v>
@@ -12982,7 +13000,7 @@
         <v>640</v>
       </c>
       <c r="G331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H331" t="s">
         <v>4</v>
@@ -13040,7 +13058,7 @@
         <v>644</v>
       </c>
       <c r="G333" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H333" t="s">
         <v>4</v>
@@ -13069,7 +13087,7 @@
         <v>646</v>
       </c>
       <c r="G334" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H334" t="s">
         <v>4</v>
@@ -13098,7 +13116,7 @@
         <v>648</v>
       </c>
       <c r="G335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H335" t="s">
         <v>4</v>
@@ -13127,7 +13145,7 @@
         <v>650</v>
       </c>
       <c r="G336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H336" t="s">
         <v>4</v>
@@ -13156,7 +13174,7 @@
         <v>652</v>
       </c>
       <c r="G337" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H337" t="s">
         <v>4</v>
@@ -13243,7 +13261,7 @@
         <v>658</v>
       </c>
       <c r="G340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H340" t="s">
         <v>4</v>
@@ -13388,7 +13406,7 @@
         <v>668</v>
       </c>
       <c r="G345" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H345" t="s">
         <v>4</v>
@@ -13417,7 +13435,7 @@
         <v>670</v>
       </c>
       <c r="G346" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H346" t="s">
         <v>4</v>
@@ -13446,7 +13464,7 @@
         <v>672</v>
       </c>
       <c r="G347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H347" t="s">
         <v>4</v>
@@ -13475,7 +13493,7 @@
         <v>674</v>
       </c>
       <c r="G348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H348" t="s">
         <v>4</v>
@@ -13533,7 +13551,7 @@
         <v>678</v>
       </c>
       <c r="G350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H350" t="s">
         <v>4</v>
@@ -13591,7 +13609,7 @@
         <v>682</v>
       </c>
       <c r="G352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H352" t="s">
         <v>4</v>
@@ -13620,7 +13638,7 @@
         <v>684</v>
       </c>
       <c r="G353" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H353" t="s">
         <v>4</v>
@@ -13678,7 +13696,7 @@
         <v>688</v>
       </c>
       <c r="G355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H355" t="s">
         <v>4</v>
@@ -13707,7 +13725,7 @@
         <v>690</v>
       </c>
       <c r="G356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H356" t="s">
         <v>4</v>
@@ -13736,7 +13754,7 @@
         <v>692</v>
       </c>
       <c r="G357" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H357" t="s">
         <v>4</v>
@@ -13788,10 +13806,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>121</v>
+        <v>695</v>
       </c>
       <c r="F359" t="s">
-        <v>122</v>
+        <v>696</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13817,13 +13835,13 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F360" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="G360" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H360" t="s">
         <v>4</v>
@@ -13846,13 +13864,13 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F361" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G361" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H361" t="s">
         <v>4</v>
@@ -13875,10 +13893,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>699</v>
+        <v>123</v>
       </c>
       <c r="F362" t="s">
-        <v>700</v>
+        <v>124</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13939,7 +13957,7 @@
         <v>704</v>
       </c>
       <c r="G364" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H364" t="s">
         <v>4</v>
@@ -14165,10 +14183,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>123</v>
+        <v>719</v>
       </c>
       <c r="F372" t="s">
-        <v>124</v>
+        <v>720</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14194,10 +14212,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="F373" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14223,10 +14241,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="F374" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14252,10 +14270,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F375" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14281,10 +14299,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="F376" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14310,10 +14328,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="F377" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14339,10 +14357,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>727</v>
+        <v>121</v>
       </c>
       <c r="F378" t="s">
-        <v>728</v>
+        <v>122</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14374,7 +14392,7 @@
         <v>730</v>
       </c>
       <c r="G379" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H379" t="s">
         <v>4</v>
@@ -14403,7 +14421,7 @@
         <v>732</v>
       </c>
       <c r="G380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H380" t="s">
         <v>4</v>
@@ -14461,7 +14479,7 @@
         <v>736</v>
       </c>
       <c r="G382" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H382" t="s">
         <v>4</v>
@@ -14490,7 +14508,7 @@
         <v>738</v>
       </c>
       <c r="G383" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H383" t="s">
         <v>4</v>
@@ -14606,7 +14624,7 @@
         <v>746</v>
       </c>
       <c r="G387" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H387" t="s">
         <v>4</v>
@@ -14635,7 +14653,7 @@
         <v>748</v>
       </c>
       <c r="G388" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H388" t="s">
         <v>4</v>
@@ -14658,10 +14676,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>401</v>
+        <v>749</v>
       </c>
       <c r="F389" t="s">
-        <v>402</v>
+        <v>750</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14687,13 +14705,13 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="F390" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="G390" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H390" t="s">
         <v>4</v>
@@ -14716,13 +14734,13 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="F391" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="G391" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H391" t="s">
         <v>4</v>
@@ -14745,10 +14763,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>753</v>
+        <v>407</v>
       </c>
       <c r="F392" t="s">
-        <v>754</v>
+        <v>408</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14780,7 +14798,7 @@
         <v>756</v>
       </c>
       <c r="G393" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H393" t="s">
         <v>4</v>
@@ -14809,7 +14827,7 @@
         <v>758</v>
       </c>
       <c r="G394" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H394" t="s">
         <v>4</v>
@@ -14867,7 +14885,7 @@
         <v>762</v>
       </c>
       <c r="G396" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H396" t="s">
         <v>4</v>
@@ -14896,7 +14914,7 @@
         <v>764</v>
       </c>
       <c r="G397" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H397" t="s">
         <v>4</v>
@@ -15035,13 +15053,13 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>117</v>
+        <v>773</v>
       </c>
       <c r="F402" t="s">
-        <v>118</v>
+        <v>774</v>
       </c>
       <c r="G402" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H402" t="s">
         <v>4</v>
@@ -15064,10 +15082,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="F403" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15093,10 +15111,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="F404" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15122,10 +15140,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>777</v>
+        <v>119</v>
       </c>
       <c r="F405" t="s">
-        <v>778</v>
+        <v>120</v>
       </c>
       <c r="G405" t="n">
         <v>2</v>
@@ -15157,7 +15175,7 @@
         <v>780</v>
       </c>
       <c r="G406" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H406" t="s">
         <v>4</v>
@@ -15215,7 +15233,7 @@
         <v>784</v>
       </c>
       <c r="G408" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H408" t="s">
         <v>4</v>
@@ -15244,7 +15262,7 @@
         <v>786</v>
       </c>
       <c r="G409" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H409" t="s">
         <v>4</v>
@@ -15267,13 +15285,13 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>381</v>
+        <v>787</v>
       </c>
       <c r="F410" t="s">
-        <v>382</v>
+        <v>788</v>
       </c>
       <c r="G410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H410" t="s">
         <v>4</v>
@@ -15296,10 +15314,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="F411" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15325,10 +15343,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="F412" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15354,10 +15372,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>791</v>
+        <v>387</v>
       </c>
       <c r="F413" t="s">
-        <v>792</v>
+        <v>388</v>
       </c>
       <c r="G413" t="n">
         <v>2</v>
@@ -15447,7 +15465,7 @@
         <v>798</v>
       </c>
       <c r="G416" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H416" t="s">
         <v>4</v>
@@ -15534,7 +15552,7 @@
         <v>804</v>
       </c>
       <c r="G419" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H419" t="s">
         <v>4</v>
@@ -15563,7 +15581,7 @@
         <v>806</v>
       </c>
       <c r="G420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H420" t="s">
         <v>4</v>
@@ -15679,7 +15697,7 @@
         <v>814</v>
       </c>
       <c r="G424" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H424" t="s">
         <v>4</v>
@@ -15708,7 +15726,7 @@
         <v>816</v>
       </c>
       <c r="G425" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H425" t="s">
         <v>4</v>
@@ -15737,7 +15755,7 @@
         <v>818</v>
       </c>
       <c r="G426" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H426" t="s">
         <v>4</v>
@@ -15766,7 +15784,7 @@
         <v>820</v>
       </c>
       <c r="G427" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H427" t="s">
         <v>4</v>
@@ -15795,7 +15813,7 @@
         <v>822</v>
       </c>
       <c r="G428" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H428" t="s">
         <v>4</v>
@@ -15882,7 +15900,7 @@
         <v>828</v>
       </c>
       <c r="G431" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H431" t="s">
         <v>4</v>
@@ -15998,7 +16016,7 @@
         <v>836</v>
       </c>
       <c r="G435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H435" t="s">
         <v>4</v>
@@ -16056,7 +16074,7 @@
         <v>840</v>
       </c>
       <c r="G437" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H437" t="s">
         <v>4</v>
@@ -16172,7 +16190,7 @@
         <v>848</v>
       </c>
       <c r="G441" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H441" t="s">
         <v>4</v>
@@ -16288,7 +16306,7 @@
         <v>856</v>
       </c>
       <c r="G445" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H445" t="s">
         <v>4</v>
@@ -16317,7 +16335,7 @@
         <v>858</v>
       </c>
       <c r="G446" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H446" t="s">
         <v>4</v>
@@ -16375,7 +16393,7 @@
         <v>862</v>
       </c>
       <c r="G448" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H448" t="s">
         <v>4</v>
@@ -16404,7 +16422,7 @@
         <v>864</v>
       </c>
       <c r="G449" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H449" t="s">
         <v>4</v>
@@ -16746,10 +16764,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>419</v>
+        <v>887</v>
       </c>
       <c r="F461" t="s">
-        <v>420</v>
+        <v>888</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16775,10 +16793,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="F462" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16804,13 +16822,13 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>421</v>
+        <v>891</v>
       </c>
       <c r="F463" t="s">
-        <v>422</v>
+        <v>892</v>
       </c>
       <c r="G463" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H463" t="s">
         <v>4</v>
@@ -16833,13 +16851,13 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>889</v>
+        <v>425</v>
       </c>
       <c r="F464" t="s">
-        <v>890</v>
+        <v>426</v>
       </c>
       <c r="G464" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H464" t="s">
         <v>4</v>
@@ -16862,10 +16880,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="F465" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16891,13 +16909,13 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>893</v>
+        <v>427</v>
       </c>
       <c r="F466" t="s">
-        <v>894</v>
+        <v>428</v>
       </c>
       <c r="G466" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H466" t="s">
         <v>4</v>
@@ -16926,7 +16944,7 @@
         <v>896</v>
       </c>
       <c r="G467" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H467" t="s">
         <v>4</v>
@@ -17042,7 +17060,7 @@
         <v>904</v>
       </c>
       <c r="G471" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H471" t="s">
         <v>4</v>
@@ -17071,7 +17089,7 @@
         <v>906</v>
       </c>
       <c r="G472" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H472" t="s">
         <v>4</v>
@@ -17129,7 +17147,7 @@
         <v>910</v>
       </c>
       <c r="G474" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H474" t="s">
         <v>4</v>
@@ -17152,10 +17170,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>565</v>
+        <v>911</v>
       </c>
       <c r="F475" t="s">
-        <v>566</v>
+        <v>912</v>
       </c>
       <c r="G475" t="n">
         <v>2</v>
@@ -17181,10 +17199,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="F476" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17210,10 +17228,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="F477" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17239,13 +17257,13 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>915</v>
+        <v>571</v>
       </c>
       <c r="F478" t="s">
-        <v>916</v>
+        <v>572</v>
       </c>
       <c r="G478" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H478" t="s">
         <v>4</v>
@@ -17384,10 +17402,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>585</v>
+        <v>925</v>
       </c>
       <c r="F483" t="s">
-        <v>586</v>
+        <v>926</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17413,10 +17431,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="F484" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17442,10 +17460,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="F485" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17471,10 +17489,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="F486" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17500,13 +17518,13 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F487" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="G487" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H487" t="s">
         <v>4</v>
@@ -17529,10 +17547,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="F488" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17558,13 +17576,13 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>645</v>
+        <v>587</v>
       </c>
       <c r="F489" t="s">
-        <v>646</v>
+        <v>588</v>
       </c>
       <c r="G489" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H489" t="s">
         <v>4</v>
@@ -17587,10 +17605,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="F490" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="G490" t="n">
         <v>2</v>
@@ -17616,10 +17634,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="F491" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17645,13 +17663,13 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>937</v>
+        <v>651</v>
       </c>
       <c r="F492" t="s">
-        <v>938</v>
+        <v>652</v>
       </c>
       <c r="G492" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H492" t="s">
         <v>4</v>
@@ -17709,7 +17727,7 @@
         <v>942</v>
       </c>
       <c r="G494" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H494" t="s">
         <v>4</v>
@@ -17738,7 +17756,7 @@
         <v>944</v>
       </c>
       <c r="G495" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H495" t="s">
         <v>4</v>
@@ -17761,13 +17779,13 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>609</v>
+        <v>945</v>
       </c>
       <c r="F496" t="s">
-        <v>610</v>
+        <v>946</v>
       </c>
       <c r="G496" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H496" t="s">
         <v>4</v>
@@ -17790,13 +17808,13 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>607</v>
+        <v>947</v>
       </c>
       <c r="F497" t="s">
-        <v>608</v>
+        <v>948</v>
       </c>
       <c r="G497" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H497" t="s">
         <v>4</v>
@@ -17819,10 +17837,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>523</v>
+        <v>949</v>
       </c>
       <c r="F498" t="s">
-        <v>524</v>
+        <v>950</v>
       </c>
       <c r="G498" t="n">
         <v>2</v>
@@ -17848,13 +17866,13 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>945</v>
+        <v>615</v>
       </c>
       <c r="F499" t="s">
-        <v>946</v>
+        <v>616</v>
       </c>
       <c r="G499" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H499" t="s">
         <v>4</v>
@@ -17877,10 +17895,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>947</v>
+        <v>613</v>
       </c>
       <c r="F500" t="s">
-        <v>948</v>
+        <v>614</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -17906,10 +17924,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>949</v>
+        <v>529</v>
       </c>
       <c r="F501" t="s">
-        <v>950</v>
+        <v>530</v>
       </c>
       <c r="G501" t="n">
         <v>2</v>
@@ -17941,7 +17959,7 @@
         <v>952</v>
       </c>
       <c r="G502" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H502" t="s">
         <v>4</v>
@@ -17964,10 +17982,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>431</v>
+        <v>953</v>
       </c>
       <c r="F503" t="s">
-        <v>432</v>
+        <v>954</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -17993,13 +18011,13 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>421</v>
+        <v>955</v>
       </c>
       <c r="F504" t="s">
-        <v>422</v>
+        <v>956</v>
       </c>
       <c r="G504" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H504" t="s">
         <v>4</v>
@@ -18022,10 +18040,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>419</v>
+        <v>957</v>
       </c>
       <c r="F505" t="s">
-        <v>420</v>
+        <v>958</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18051,10 +18069,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>953</v>
+        <v>437</v>
       </c>
       <c r="F506" t="s">
-        <v>954</v>
+        <v>438</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18080,10 +18098,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>955</v>
+        <v>427</v>
       </c>
       <c r="F507" t="s">
-        <v>956</v>
+        <v>428</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18109,13 +18127,13 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>675</v>
+        <v>425</v>
       </c>
       <c r="F508" t="s">
-        <v>676</v>
+        <v>426</v>
       </c>
       <c r="G508" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H508" t="s">
         <v>4</v>
@@ -18138,10 +18156,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="F509" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18167,10 +18185,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="F510" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18196,13 +18214,13 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>961</v>
+        <v>681</v>
       </c>
       <c r="F511" t="s">
-        <v>962</v>
+        <v>682</v>
       </c>
       <c r="G511" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H511" t="s">
         <v>4</v>
@@ -18225,10 +18243,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>919</v>
+        <v>963</v>
       </c>
       <c r="F512" t="s">
-        <v>920</v>
+        <v>964</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18254,10 +18272,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="F513" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18283,10 +18301,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="F514" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18312,10 +18330,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>967</v>
+        <v>925</v>
       </c>
       <c r="F515" t="s">
-        <v>968</v>
+        <v>926</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18341,10 +18359,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>587</v>
+        <v>969</v>
       </c>
       <c r="F516" t="s">
-        <v>588</v>
+        <v>970</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18370,10 +18388,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>711</v>
+        <v>971</v>
       </c>
       <c r="F517" t="s">
-        <v>712</v>
+        <v>972</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18399,10 +18417,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="F518" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18428,10 +18446,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>971</v>
+        <v>593</v>
       </c>
       <c r="F519" t="s">
-        <v>972</v>
+        <v>594</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18457,10 +18475,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>937</v>
+        <v>717</v>
       </c>
       <c r="F520" t="s">
-        <v>938</v>
+        <v>718</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18486,10 +18504,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="F521" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18515,10 +18533,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="F522" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18544,10 +18562,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>977</v>
+        <v>943</v>
       </c>
       <c r="F523" t="s">
-        <v>978</v>
+        <v>944</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -18579,7 +18597,7 @@
         <v>980</v>
       </c>
       <c r="G524" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H524" t="s">
         <v>4</v>
@@ -18666,7 +18684,7 @@
         <v>986</v>
       </c>
       <c r="G527" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H527" t="s">
         <v>4</v>
@@ -18753,7 +18771,7 @@
         <v>992</v>
       </c>
       <c r="G530" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H530" t="s">
         <v>4</v>
@@ -18840,7 +18858,7 @@
         <v>998</v>
       </c>
       <c r="G533" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H533" t="s">
         <v>4</v>
@@ -18956,7 +18974,7 @@
         <v>1006</v>
       </c>
       <c r="G537" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H537" t="s">
         <v>4</v>
@@ -18979,10 +18997,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="F538" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -18991,6 +19009,93 @@
         <v>4</v>
       </c>
       <c r="I538" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" t="s">
+        <v>0</v>
+      </c>
+      <c r="C539" t="s">
+        <v>1</v>
+      </c>
+      <c r="D539" t="n">
+        <v>538</v>
+      </c>
+      <c r="E539" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F539" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G539" t="n">
+        <v>1</v>
+      </c>
+      <c r="H539" t="s">
+        <v>4</v>
+      </c>
+      <c r="I539" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" t="s">
+        <v>0</v>
+      </c>
+      <c r="C540" t="s">
+        <v>1</v>
+      </c>
+      <c r="D540" t="n">
+        <v>539</v>
+      </c>
+      <c r="E540" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F540" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G540" t="n">
+        <v>9</v>
+      </c>
+      <c r="H540" t="s">
+        <v>4</v>
+      </c>
+      <c r="I540" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" t="s">
+        <v>0</v>
+      </c>
+      <c r="C541" t="s">
+        <v>1</v>
+      </c>
+      <c r="D541" t="n">
+        <v>540</v>
+      </c>
+      <c r="E541" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F541" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G541" t="n">
+        <v>1</v>
+      </c>
+      <c r="H541" t="s">
+        <v>4</v>
+      </c>
+      <c r="I541" t="n">
         <v>3</v>
       </c>
     </row>
